--- a/MyHOLO/Ana_2020_May/HOE_Beam4_Rayfile_484_allwl_0_0_OP1.xlsx
+++ b/MyHOLO/Ana_2020_May/HOE_Beam4_Rayfile_484_allwl_0_0_OP1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/MyHOLO/Ana_2020_May/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F137C-2392-9944-84A9-61491C0E3C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA2EA29-07EC-9949-9B67-72CD4D84084A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16800" xr2:uid="{9A8FB482-626B-F441-915A-7FB83441F25E}"/>
   </bookViews>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E86D52-0319-1B40-B760-31929A808E68}">
   <dimension ref="A1:M487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
       <selection activeCell="Q476" sqref="Q476"/>
     </sheetView>
   </sheetViews>
